--- a/src/data/4_comp_hydrocarbon_1.xlsx
+++ b/src/data/4_comp_hydrocarbon_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\sns_modeling\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7706FE-3F85-4658-A6C3-0A336552694E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18C7402-DFFD-465B-9E26-AABD27113B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
